--- a/gropin/schema/metadataschema216.xlsx
+++ b/gropin/schema/metadataschema216.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Listeria monocytogenes in/on Salmon fillets (gropin ID: 216 )</t>
+          <t>Gropin secondary growth model for Listeria monocytogenes in/on Salmon fillets (gropin ID: 216 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(4.004,24.975024975025,length.out=21)</t>
+          <t>seq(4.004,24.975024975025,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(0,33.966033966034,length.out=21)</t>
+          <t>seq(0,33.966033966034,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0,7.99200799200799,length.out=21)</t>
+          <t>seq(0,7.99200799200799,length.out=10)</t>
         </is>
       </c>
     </row>
